--- a/teaching/traditional_assets/database/data/canada/canada_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/canada/canada_insurance_general.xlsx
@@ -591,121 +591,118 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.1665</v>
-      </c>
-      <c r="E2">
-        <v>-0.118</v>
+        <v>0.167</v>
       </c>
       <c r="G2">
-        <v>0.07540201893707095</v>
+        <v>0.1634561067606838</v>
       </c>
       <c r="H2">
-        <v>0.07540201893707095</v>
+        <v>0.1634561067606838</v>
       </c>
       <c r="I2">
-        <v>0.08548261525696869</v>
+        <v>-0.007732596159881378</v>
       </c>
       <c r="J2">
-        <v>0.07759972969869092</v>
+        <v>-0.007732596159881378</v>
       </c>
       <c r="K2">
-        <v>854.529</v>
+        <v>-17.791</v>
       </c>
       <c r="L2">
-        <v>0.04233095191624651</v>
+        <v>-0.000954423603999234</v>
       </c>
       <c r="M2">
-        <v>567.1</v>
+        <v>495</v>
       </c>
       <c r="N2">
-        <v>0.04514049192071957</v>
+        <v>0.05350252380592094</v>
       </c>
       <c r="O2">
-        <v>0.6636404381829054</v>
+        <v>-27.82305660165252</v>
       </c>
       <c r="P2">
-        <v>278</v>
+        <v>275.7</v>
       </c>
       <c r="Q2">
-        <v>0.02212847249860702</v>
+        <v>0.02979928447129778</v>
       </c>
       <c r="R2">
-        <v>0.3253254131808282</v>
+        <v>-15.49659940419313</v>
       </c>
       <c r="S2">
-        <v>289.1</v>
+        <v>219.3</v>
       </c>
       <c r="T2">
-        <v>0.5097866337506612</v>
+        <v>0.4430303030303031</v>
       </c>
       <c r="U2">
-        <v>4189.946</v>
+        <v>4577.03</v>
       </c>
       <c r="V2">
-        <v>0.3335147655814694</v>
+        <v>0.4947124374452814</v>
       </c>
       <c r="W2">
-        <v>0.04530817251607873</v>
+        <v>0.3215874377407865</v>
       </c>
       <c r="X2">
-        <v>0.05850426375136225</v>
+        <v>0.05237640762358182</v>
       </c>
       <c r="Y2">
-        <v>-0.01319609123528352</v>
+        <v>0.2692110301172047</v>
       </c>
       <c r="Z2">
-        <v>1.25540478089797</v>
+        <v>1.074427972499405</v>
       </c>
       <c r="AA2">
-        <v>0.08773127550810057</v>
+        <v>0.1717292152745801</v>
       </c>
       <c r="AB2">
-        <v>0.04770728977895498</v>
+        <v>0.04171469586693065</v>
       </c>
       <c r="AC2">
-        <v>0.04002398572914559</v>
+        <v>0.1300145194076495</v>
       </c>
       <c r="AD2">
-        <v>7786.07</v>
+        <v>8650.92</v>
       </c>
       <c r="AE2">
-        <v>1402.912066868546</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>9188.982066868546</v>
+        <v>8650.92</v>
       </c>
       <c r="AG2">
-        <v>4999.036066868546</v>
+        <v>4073.89</v>
       </c>
       <c r="AH2">
-        <v>0.4224434370449722</v>
+        <v>0.4832154934250582</v>
       </c>
       <c r="AI2">
-        <v>0.3424598257938142</v>
+        <v>0.3454714704856972</v>
       </c>
       <c r="AJ2">
-        <v>0.2846501423772508</v>
+        <v>0.3057147080961054</v>
       </c>
       <c r="AK2">
-        <v>0.2207826014188253</v>
+        <v>0.1990771056124254</v>
       </c>
       <c r="AL2">
-        <v>442.375</v>
+        <v>475.999</v>
       </c>
       <c r="AM2">
-        <v>442.375</v>
+        <v>475.999</v>
       </c>
       <c r="AN2">
-        <v>3.174165800362828</v>
+        <v>40.54041895121608</v>
       </c>
       <c r="AO2">
-        <v>3.883822548742583</v>
+        <v>-0.3028157622179879</v>
       </c>
       <c r="AP2">
-        <v>2.037969003391241</v>
+        <v>19.09128825155818</v>
       </c>
       <c r="AQ2">
-        <v>3.883822548742583</v>
+        <v>-0.3028157622179879</v>
       </c>
     </row>
     <row r="3">
@@ -725,25 +722,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.173</v>
+        <v>0.177</v>
       </c>
       <c r="G3">
-        <v>-0.05167597765363129</v>
+        <v>0.01461245235069886</v>
       </c>
       <c r="H3">
-        <v>-0.05167597765363129</v>
+        <v>0.01461245235069886</v>
       </c>
       <c r="I3">
-        <v>0.04682531944115883</v>
+        <v>0.1473951715374841</v>
       </c>
       <c r="J3">
-        <v>0.04682531944115883</v>
+        <v>0.1473951715374841</v>
       </c>
       <c r="K3">
-        <v>0.029</v>
+        <v>0.909</v>
       </c>
       <c r="L3">
-        <v>0.004050279329608939</v>
+        <v>0.1155019059720458</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -767,73 +764,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.346</v>
+        <v>0.63</v>
       </c>
       <c r="V3">
-        <v>0.03326923076923077</v>
+        <v>0.04772727272727273</v>
       </c>
       <c r="W3">
-        <v>0.02148148148148148</v>
+        <v>0.6446808510638299</v>
       </c>
       <c r="X3">
-        <v>0.05498523508690625</v>
+        <v>0.0427892584120525</v>
       </c>
       <c r="Y3">
-        <v>-0.03350375360542478</v>
+        <v>0.6018915926517774</v>
       </c>
       <c r="Z3">
-        <v>1.877957144492283</v>
+        <v>2.387018501668183</v>
       </c>
       <c r="AA3">
-        <v>0.08793594318765763</v>
+        <v>0.3518350015165302</v>
       </c>
       <c r="AB3">
-        <v>0.04742433271735814</v>
+        <v>0.04062323492004773</v>
       </c>
       <c r="AC3">
-        <v>0.04051161047029949</v>
+        <v>0.3112117665964825</v>
       </c>
       <c r="AD3">
-        <v>3.17</v>
+        <v>1.32</v>
       </c>
       <c r="AE3">
-        <v>0.8636535640065141</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>4.033653564006514</v>
+        <v>1.32</v>
       </c>
       <c r="AG3">
-        <v>3.687653564006514</v>
+        <v>0.6900000000000001</v>
       </c>
       <c r="AH3">
-        <v>0.2794617139810889</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="AI3">
-        <v>0.7409827823499032</v>
+        <v>0.2688391038696538</v>
       </c>
       <c r="AJ3">
-        <v>0.2617649239635155</v>
+        <v>0.04967602591792657</v>
       </c>
       <c r="AK3">
-        <v>0.7234021531090852</v>
+        <v>0.1612149532710281</v>
       </c>
       <c r="AL3">
-        <v>0.175</v>
+        <v>0.199</v>
       </c>
       <c r="AM3">
-        <v>0.175</v>
+        <v>0.199</v>
       </c>
       <c r="AN3">
-        <v>5.763636363636363</v>
+        <v>1.211009174311927</v>
       </c>
       <c r="AO3">
-        <v>1.177142857142857</v>
+        <v>5.829145728643216</v>
       </c>
       <c r="AP3">
-        <v>6.704824661830024</v>
+        <v>0.6330275229357798</v>
       </c>
       <c r="AQ3">
-        <v>1.177142857142857</v>
+        <v>5.829145728643216</v>
       </c>
     </row>
     <row r="4">
@@ -853,121 +850,118 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.16</v>
-      </c>
-      <c r="E4">
-        <v>-0.118</v>
+        <v>0.157</v>
       </c>
       <c r="G4">
-        <v>0.07544710773698321</v>
+        <v>0.1635189747057592</v>
       </c>
       <c r="H4">
-        <v>0.07544710773698321</v>
+        <v>0.1635189747057592</v>
       </c>
       <c r="I4">
-        <v>0.08549633132995496</v>
+        <v>-0.007798118361804785</v>
       </c>
       <c r="J4">
-        <v>0.06972803052398047</v>
+        <v>-0.007798118361804785</v>
       </c>
       <c r="K4">
-        <v>854.5</v>
+        <v>-18.7</v>
       </c>
       <c r="L4">
-        <v>0.0423445343587863</v>
+        <v>-0.00100361192956469</v>
       </c>
       <c r="M4">
-        <v>567.1</v>
+        <v>495</v>
       </c>
       <c r="N4">
-        <v>0.04517789143285057</v>
+        <v>0.05357896673774448</v>
       </c>
       <c r="O4">
-        <v>0.663662960795787</v>
+        <v>-26.47058823529412</v>
       </c>
       <c r="P4">
-        <v>278</v>
+        <v>275.7</v>
       </c>
       <c r="Q4">
-        <v>0.02214680623934484</v>
+        <v>0.02984186086787102</v>
       </c>
       <c r="R4">
-        <v>0.3253364540667057</v>
+        <v>-14.74331550802139</v>
       </c>
       <c r="S4">
-        <v>289.1</v>
+        <v>219.3</v>
       </c>
       <c r="T4">
-        <v>0.5097866337506612</v>
+        <v>0.4430303030303031</v>
       </c>
       <c r="U4">
-        <v>4189.6</v>
+        <v>4576.4</v>
       </c>
       <c r="V4">
-        <v>0.333763523094817</v>
+        <v>0.4953510775325532</v>
       </c>
       <c r="W4">
-        <v>0.06913486355067598</v>
+        <v>-0.001505975582256869</v>
       </c>
       <c r="X4">
-        <v>0.06202329241581825</v>
+        <v>0.06196355683511115</v>
       </c>
       <c r="Y4">
-        <v>0.007111571134857733</v>
+        <v>-0.06346953241736802</v>
       </c>
       <c r="Z4">
-        <v>1.255257135054773</v>
+        <v>1.074178484953303</v>
       </c>
       <c r="AA4">
-        <v>0.08752660782854352</v>
+        <v>-0.00837657096737</v>
       </c>
       <c r="AB4">
-        <v>0.04799024684055182</v>
+        <v>0.04280615681381357</v>
       </c>
       <c r="AC4">
-        <v>0.03953636098799169</v>
+        <v>-0.05118272778118357</v>
       </c>
       <c r="AD4">
-        <v>7782.9</v>
+        <v>8649.6</v>
       </c>
       <c r="AE4">
-        <v>1402.048413304539</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>9184.948413304539</v>
+        <v>8649.6</v>
       </c>
       <c r="AG4">
-        <v>4995.348413304539</v>
+        <v>4073.200000000001</v>
       </c>
       <c r="AH4">
-        <v>0.4225383763921998</v>
+        <v>0.4835339299989378</v>
       </c>
       <c r="AI4">
-        <v>0.3423789582659044</v>
+        <v>0.3454864994408052</v>
       </c>
       <c r="AJ4">
-        <v>0.2846685148400114</v>
+        <v>0.3059818658493528</v>
       </c>
       <c r="AK4">
-        <v>0.2206694171526886</v>
+        <v>0.199085026100217</v>
       </c>
       <c r="AL4">
-        <v>442.2</v>
+        <v>475.8</v>
       </c>
       <c r="AM4">
-        <v>442.2</v>
+        <v>475.8</v>
       </c>
       <c r="AN4">
-        <v>3.173585059533518</v>
+        <v>40.74234573716439</v>
       </c>
       <c r="AO4">
-        <v>3.884893713251922</v>
+        <v>-0.305380411937789</v>
       </c>
       <c r="AP4">
-        <v>2.036922367193173</v>
+        <v>19.18605746585022</v>
       </c>
       <c r="AQ4">
-        <v>3.884893713251922</v>
+        <v>-0.305380411937789</v>
       </c>
     </row>
   </sheetData>
